--- a/src/test/java/com/xeroxDriverPosting/testData/TestData.xlsx
+++ b/src/test/java/com/xeroxDriverPosting/testData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2588228-7BA5-43C9-81C9-88128F7E0269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23540965-BC96-4B4F-9D75-74B609D691A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="6" r:id="rId1"/>
@@ -18,21 +18,11 @@
     <sheet name="PCL6Driver" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Windows 10</t>
   </si>
@@ -199,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -594,10 +584,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,27 +597,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -659,12 +656,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -742,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -798,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
